--- a/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/Table17.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/Table17.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb166/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D747D28-259C-9B40-95C8-5DFC98FF0402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BBFA3F-7760-EB46-B869-9461E9AD3447}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19260" yWindow="460" windowWidth="18540" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,13 +569,12 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -2070,10 +2069,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108" s="2">
         <v>19122405</v>
